--- a/CSharp/_miniProjeto/_doc/Modelagem.xlsx
+++ b/CSharp/_miniProjeto/_doc/Modelagem.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nova pasta\T14_Logica\Pedro\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T14_Logica\CSharp\_miniProjeto\_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246112DE-42A3-4481-B8FA-E59B9E5BB49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3B355BB-171D-4A26-81EE-707A32A7F986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{3DF4FEE4-5CAB-4C9D-AB68-AB1CB0C932BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="5" xr2:uid="{3DF4FEE4-5CAB-4C9D-AB68-AB1CB0C932BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MySql" sheetId="3" r:id="rId3"/>
     <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
     <sheet name="Planilha3" sheetId="5" r:id="rId5"/>
+    <sheet name="Gamb" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="131">
   <si>
     <t>DER</t>
   </si>
@@ -379,6 +380,60 @@
   </si>
   <si>
     <t>varchar(255)</t>
+  </si>
+  <si>
+    <t>txtID</t>
+  </si>
+  <si>
+    <t>txtNome</t>
+  </si>
+  <si>
+    <t>txtData</t>
+  </si>
+  <si>
+    <t>txtQtde</t>
+  </si>
+  <si>
+    <t>txtObs</t>
+  </si>
+  <si>
+    <t>txtValorC</t>
+  </si>
+  <si>
+    <t>txtValorV</t>
+  </si>
+  <si>
+    <t>cboStatus</t>
+  </si>
+  <si>
+    <t>.Text</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>"";</t>
+  </si>
+  <si>
+    <t>'"+</t>
+  </si>
+  <si>
+    <t>.Text+"',</t>
+  </si>
+  <si>
+    <t>.Text+"'</t>
+  </si>
+  <si>
+    <t>leitura[</t>
+  </si>
+  <si>
+    <t>].ToString();</t>
+  </si>
+  <si>
+    <t>+"',"+</t>
+  </si>
+  <si>
+    <t>"</t>
   </si>
 </sst>
 </file>
@@ -394,7 +449,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +459,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -646,7 +707,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -659,24 +720,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1024,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC643D6-9AEB-418C-A4AA-B20C07B35E1F}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99"/>
+    <sheetView topLeftCell="A15" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1039,10 +1101,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -1294,7 +1357,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
         <v>16</v>
@@ -1310,7 +1373,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
         <v>17</v>
@@ -1326,7 +1389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
         <v>18</v>
@@ -1342,7 +1405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="6" t="s">
         <v>19</v>
@@ -1358,14 +1421,15 @@
       </c>
       <c r="F20" s="4"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="19"/>
+      <c r="C22" s="15"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
         <v>4</v>
@@ -1383,7 +1447,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
@@ -1399,9 +1463,23 @@
       <c r="E24" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
         <v>24</v>
@@ -1415,9 +1493,23 @@
       <c r="E25" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="H25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J25" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
         <v>25</v>
@@ -1431,9 +1523,23 @@
       <c r="E26" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="H26" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J26" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
         <v>28</v>
@@ -1445,9 +1551,23 @@
         <v>93</v>
       </c>
       <c r="E27" s="7"/>
-      <c r="F27" s="2"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="H27" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
         <v>29</v>
@@ -1459,9 +1579,23 @@
         <v>93</v>
       </c>
       <c r="E28" s="7"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G28" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="H28" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J28" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
         <v>30</v>
@@ -1473,9 +1607,23 @@
         <v>93</v>
       </c>
       <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
         <v>31</v>
@@ -1487,9 +1635,23 @@
         <v>95</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F30" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J30" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="6" t="s">
         <v>32</v>
@@ -1504,13 +1666,26 @@
         <v>97</v>
       </c>
       <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+      <c r="G31" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H31" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="J31" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="15"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -1669,16 +1844,29 @@
       <c r="F42" s="4"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="15"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,6 +1876,18 @@
       <c r="B46" s="2" t="s">
         <v>73</v>
       </c>
+      <c r="C46" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -1696,6 +1896,16 @@
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="C47" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -1704,193 +1914,501 @@
       <c r="B48" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C48" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="C51" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="13"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53" s="19"/>
+      <c r="C53" s="15"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C54" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C55" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C56" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C57" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C58" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C59" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C61" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C62" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C63" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="C72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="13"/>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B74" s="19"/>
+      <c r="C74" s="15"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C75" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C76" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C77" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C78" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C79" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
         <v>66</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1898,18 +2416,41 @@
       <c r="B81" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C81" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F81" s="4"/>
     </row>
     <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="13"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="15"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="5" t="s">
         <v>4</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -1918,6 +2459,18 @@
       </c>
       <c r="B85" s="2" t="s">
         <v>69</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -1925,38 +2478,81 @@
       <c r="B86" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="C86" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1"/>
       <c r="B87" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="C87" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1"/>
       <c r="B88" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="C88" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="2" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="4" t="s">
         <v>67</v>
       </c>
+      <c r="C89" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D89" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F89" s="4"/>
     </row>
     <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="B91" s="15"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="15"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="C92" s="12" t="s">
         <v>77</v>
       </c>
       <c r="D92" s="9" t="s">
@@ -1973,16 +2569,16 @@
       <c r="A93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B93" s="20" t="s">
+      <c r="B93" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C93" s="18" t="s">
+      <c r="C93" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D93" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E93" s="16" t="s">
+      <c r="E93" s="7" t="s">
         <v>92</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -1991,10 +2587,10 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1"/>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C94" s="18" t="s">
+      <c r="C94" s="13" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="7" t="s">
@@ -2007,16 +2603,16 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1"/>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D95" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E95" s="16" t="s">
+      <c r="E95" s="7" t="s">
         <v>96</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -2025,10 +2621,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1"/>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C96" s="18" t="s">
+      <c r="C96" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D96" s="7" t="s">
@@ -2041,16 +2637,16 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1"/>
-      <c r="B97" s="20" t="s">
+      <c r="B97" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C97" s="18" t="s">
+      <c r="C97" s="13" t="s">
         <v>84</v>
       </c>
       <c r="D97" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="E97" s="16" t="s">
+      <c r="E97" s="7" t="s">
         <v>94</v>
       </c>
       <c r="F97" s="2" t="s">
@@ -2059,13 +2655,13 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1"/>
-      <c r="B98" s="20" t="s">
+      <c r="B98" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="C98" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="D98" s="16" t="s">
+      <c r="D98" s="7" t="s">
         <v>95</v>
       </c>
       <c r="E98" s="7"/>
@@ -2075,10 +2671,10 @@
     </row>
     <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
-      <c r="B99" s="21" t="s">
+      <c r="B99" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C99" s="19" t="s">
+      <c r="C99" s="14" t="s">
         <v>87</v>
       </c>
       <c r="D99" s="11" t="s">
@@ -2121,10 +2717,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -2447,10 +3043,10 @@
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="13"/>
+      <c r="B22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -2606,10 +3202,10 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="13"/>
+      <c r="B33" s="19"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
@@ -2767,10 +3363,10 @@
     </row>
     <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+      <c r="A44" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="13"/>
+      <c r="B44" s="19"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
@@ -2822,10 +3418,10 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="12" t="s">
+      <c r="A53" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="13"/>
+      <c r="B53" s="19"/>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
@@ -2945,10 +3541,10 @@
     </row>
     <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B74" s="13"/>
+      <c r="B74" s="19"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="1"/>
@@ -2998,10 +3594,10 @@
     </row>
     <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="12" t="s">
+      <c r="A83" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B83" s="13"/>
+      <c r="B83" s="19"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
@@ -3152,7 +3748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEC4296-14A6-4A2E-A821-D38E6D12E43E}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+    <sheetView zoomScale="250" zoomScaleNormal="250" workbookViewId="0">
       <selection sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
@@ -3204,4 +3800,540 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D672D53-82DD-4FA2-B600-D5AD6E9D5C6E}">
+  <dimension ref="A1:I35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29:H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" t="str">
+        <f>_xlfn.CONCAT(C1:D1)</f>
+        <v>nome_Produto,</v>
+      </c>
+      <c r="F1" t="str">
+        <f>_xlfn.CONCAT(E1:E5)</f>
+        <v>nome_Produto,qtde_Produto,Vcusto_Produto,Vvenda_Produto,obs_Produto</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E2" t="str">
+        <f t="shared" ref="E2:E5" si="0">_xlfn.CONCAT(C2:D2)</f>
+        <v>qtde_Produto,</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" si="0"/>
+        <v>Vcusto_Produto,</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Vvenda_Produto,</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>obs_Produto</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" ref="F8:F12" si="1">_xlfn.CONCAT(B8:D8)</f>
+        <v>'"+txtNome.Text+"',</v>
+      </c>
+      <c r="I8" t="str">
+        <f>_xlfn.CONCAT(F8:F12)</f>
+        <v>'"+txtNome.Text+"','"+txtQtde.Text+"','"+txtValorC.Text+"','"+txtValorV.Text+"','"+txtObs.Text+"'</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>'"+txtQtde.Text+"',</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>'"+txtValorC.Text+"',</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>'"+txtValorV.Text+"',</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>'"+txtObs.Text+"'</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+      <c r="G24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G28" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H28" t="str">
+        <f>_xlfn.CONCAT(A28:G28)</f>
+        <v>"ID_Produto='"+txtID.Text+"',"+</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" ref="H29:H35" si="2">_xlfn.CONCAT(A29:G29)</f>
+        <v>"nome_Produto='"+txtNome.Text+"',"+</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>"data_Produto='"+txtData.Text+"',"+</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G31" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>"qtde_Produto='"+txtQtde.Text+"',"+</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>130</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G32" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>"Vcusto_Produto='"+txtValorC.Text+"',"+</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>130</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G33" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>"Vvenda_Produto='"+txtValorV.Text+"',"+</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" t="s">
+        <v>122</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>"obs_Produto='"+txtObs.Text+"',"+</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="G35" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>"status_Produto='"+cboStatus.Text+"',"+</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>